--- a/measurements/detector_signals/cycle_1/434/radial_measurements_full_tc.xlsx
+++ b/measurements/detector_signals/cycle_1/434/radial_measurements_full_tc.xlsx
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -915,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -939,7 +939,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -955,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -987,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -995,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1003,7 +1003,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1011,7 +1011,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1019,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1035,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1043,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1051,7 +1051,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1067,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1115,7 +1115,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1123,7 +1123,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1131,7 +1131,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1139,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1147,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1155,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1163,7 +1163,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1187,7 +1187,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1203,7 +1203,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1211,7 +1211,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1259,7 +1259,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1267,7 +1267,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1283,7 +1283,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1291,7 +1291,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1299,7 +1299,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1307,7 +1307,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1315,7 +1315,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1323,7 +1323,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1331,7 +1331,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1339,7 +1339,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1347,7 +1347,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1355,7 +1355,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1363,7 +1363,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1371,7 +1371,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1379,7 +1379,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1387,7 +1387,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1395,7 +1395,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1403,7 +1403,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1411,7 +1411,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1419,7 +1419,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1427,7 +1427,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1435,7 +1435,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1443,7 +1443,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1451,7 +1451,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1459,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1467,7 +1467,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1475,7 +1475,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1483,7 +1483,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1491,7 +1491,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1499,7 +1499,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1507,7 +1507,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1515,7 +1515,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1523,7 +1523,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1531,7 +1531,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1539,7 +1539,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1547,7 +1547,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1555,7 +1555,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1563,7 +1563,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1571,7 +1571,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1579,7 +1579,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1.06245908802</v>
+        <v>1.05271528675</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1.18874837253</v>
+        <v>1.22323472279</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1.24035203217</v>
+        <v>1.22337035235</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1.07621225519</v>
+        <v>1.06497463146</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1843,7 +1843,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1.25510517048</v>
+        <v>1.24110823539</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.997460017665</v>
+        <v>1.06985808386</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>1.24925582251</v>
+        <v>1.2303704603</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08448927555</v>
+        <v>1.08131864035</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>1.25497276756</v>
+        <v>1.26513849427</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26217243888</v>
+        <v>1.24097841711</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1.08942843232</v>
+        <v>1.08298414715</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>1.2513580573</v>
+        <v>1.24272960769</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1.13352739122</v>
+        <v>1.12280563261</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>1.06971904118</v>
+        <v>1.05836187666</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>1.2535311081</v>
+        <v>1.22933062305</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>1.02954509119</v>
+        <v>1.05357131093</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>1.19860288405</v>
+        <v>1.23173367708</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1.06172415117</v>
+        <v>1.05078241554</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.771785809891</v>
+        <v>0.7757049525</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>1.21076721732</v>
+        <v>1.18669927264</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.858911754646</v>
+        <v>0.8914811832789999</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>1.15515839804</v>
+        <v>1.1383747871</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.745995253244</v>
+        <v>0.740424266001</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.543213746068</v>
+        <v>0.547067018386</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.668214472727</v>
+        <v>0.677605084256</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.674654740583</v>
+        <v>0.686277118879</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.642223457721</v>
+        <v>0.632779636718</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.528053662484</v>
+        <v>0.527010270511</v>
       </c>
     </row>
   </sheetData>
